--- a/InternalDesign/成長記録/成長記録.xlsx
+++ b/InternalDesign/成長記録/成長記録.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr checkCompatibility="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KUT003\Documents\GitHub\2018_SoftwareEngineering\InternalDesign\成長記録\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="成長記録" sheetId="1" r:id="rId1"/>
@@ -15,8 +20,8 @@
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150001"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -36,31 +41,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【消去】</t>
-  </si>
-  <si>
-    <t>【共有ボタン】</t>
-    <rPh sb="1" eb="3">
-      <t>キョウユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【もどる】</t>
   </si>
   <si>
     <t>【もどる】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【コメントボタン】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【ゴミ箱ボタン】</t>
-    <rPh sb="3" eb="4">
-      <t>バコ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -115,10 +99,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【戻る】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コメント欄</t>
     <rPh sb="4" eb="5">
       <t>ラン</t>
@@ -137,15 +117,44 @@
     <t>しない</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>【もどる】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ゴミ箱】</t>
+    <rPh sb="3" eb="4">
+      <t>バコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【コメント】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【共有】</t>
+    <rPh sb="1" eb="3">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【削除】</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +193,20 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="HGPｺﾞｼｯｸM"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="21"/>
+      <color theme="1"/>
+      <name val="HGPｺﾞｼｯｸE"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -207,7 +230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -225,6 +248,12 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -884,7 +913,7 @@
         <xdr:cNvPr id="122" name="直線コネクタ 121">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -939,7 +968,7 @@
         <xdr:cNvPr id="123" name="直線矢印コネクタ 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -997,7 +1026,7 @@
         <xdr:cNvPr id="124" name="直線矢印コネクタ 123">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1055,7 +1084,7 @@
         <xdr:cNvPr id="125" name="直線矢印コネクタ 124">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1111,7 +1140,7 @@
         <xdr:cNvPr id="127" name="フローチャート: 処理 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000055000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1185,7 +1214,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>消去モジュール</a:t>
+            <a:t>画像削除モジュール</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
             <a:solidFill>
@@ -1219,7 +1248,7 @@
         <xdr:cNvPr id="128" name="フローチャート: 処理 127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000055000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1327,7 +1356,7 @@
         <xdr:cNvPr id="129" name="フローチャート: 処理 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000055000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1631,7 +1660,7 @@
         <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1808,7 +1837,7 @@
         <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1993,7 +2022,7 @@
         <xdr:cNvPr id="33" name="直線矢印コネクタ 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2466,7 +2495,7 @@
         <xdr:cNvPr id="34" name="直線コネクタ 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2523,7 +2552,7 @@
         <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2651,7 +2680,7 @@
         <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2779,7 +2808,7 @@
         <xdr:cNvPr id="81" name="直線コネクタ 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3038,7 +3067,7 @@
         <xdr:cNvPr id="101" name="直線矢印コネクタ 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3668,7 +3697,7 @@
         <xdr:cNvPr id="12" name="直線コネクタ 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3725,7 +3754,7 @@
         <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3783,7 +3812,7 @@
         <xdr:cNvPr id="28" name="フローチャート: 処理 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000055000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3857,7 +3886,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>消去モジュール</a:t>
+            <a:t>削除モジュール</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
             <a:solidFill>
@@ -4043,7 +4072,7 @@
         <xdr:cNvPr id="100" name="直線矢印コネクタ 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4099,7 +4128,7 @@
         <xdr:cNvPr id="104" name="直線矢印コネクタ 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4205,7 +4234,7 @@
         <xdr:cNvPr id="113" name="直線コネクタ 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4518,7 +4547,7 @@
         <xdr:cNvPr id="134" name="直線コネクタ 133">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4573,7 +4602,7 @@
         <xdr:cNvPr id="137" name="直線コネクタ 136">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4628,7 +4657,7 @@
         <xdr:cNvPr id="138" name="直線コネクタ 137">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6306,7 +6335,7 @@
         <xdr:cNvPr id="56" name="フローチャート: 処理 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000055000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7402,7 +7431,7 @@
         <xdr:cNvPr id="113" name="フローチャート: 処理 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000055000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8085,17 +8114,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:S20"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -8113,23 +8142,23 @@
         <v>1</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:19" ht="24.75" customHeight="1">
       <c r="E16" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="14:14" ht="24.75" customHeight="1">
       <c r="N20" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -8144,11 +8173,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:AH47"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="24.75" customHeight="1"/>
@@ -8212,7 +8241,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
@@ -8258,8 +8287,8 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>2</v>
+      <c r="F14" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -8294,10 +8323,10 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>4</v>
+      <c r="D17" s="6" t="s">
+        <v>2</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -8346,8 +8375,8 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>9</v>
+      <c r="F21" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -8392,8 +8421,8 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1" t="s">
-        <v>8</v>
+      <c r="J24" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
@@ -8547,11 +8576,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W38"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.75" customHeight="1"/>
@@ -8668,7 +8697,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -8767,7 +8796,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -9032,15 +9061,15 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="V21" s="2"/>
     </row>
@@ -9319,7 +9348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I22"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
@@ -9461,7 +9490,7 @@
       <c r="F13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="24.75" customHeight="1">
@@ -9572,10 +9601,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="W71" sqref="W71"/>
     </sheetView>
   </sheetViews>
@@ -9670,12 +9699,12 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="T10" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="10:23" ht="24.75" customHeight="1">
@@ -9759,7 +9788,7 @@
     </row>
     <row r="19" spans="4:17" ht="24.75" customHeight="1">
       <c r="K19" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -9767,7 +9796,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="4:17" ht="24.75" customHeight="1">
@@ -9806,7 +9835,7 @@
     </row>
     <row r="23" spans="4:17" ht="24.75" customHeight="1">
       <c r="E23" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -9817,7 +9846,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -9906,7 +9935,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -9914,7 +9943,7 @@
     </row>
     <row r="31" spans="4:17" ht="24.75" customHeight="1">
       <c r="D31" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -9922,7 +9951,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K31" s="2"/>
     </row>
@@ -9950,7 +9979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9958,7 +9987,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="17.100000000000001" customHeight="1"/>
   </sheetData>
